--- a/Assets/Data/Adventures.xlsx
+++ b/Assets/Data/Adventures.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Id</t>
   </si>
@@ -80,16 +80,22 @@
     <t>Event3</t>
   </si>
   <si>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Ending</t>
+  </si>
+  <si>
+    <t>Ending2</t>
+  </si>
+  <si>
+    <t>Event4_2</t>
+  </si>
+  <si>
     <t>Event4_1</t>
   </si>
   <si>
-    <t>Event4_2</t>
-  </si>
-  <si>
-    <t>Turnover</t>
-  </si>
-  <si>
-    <t>Ending</t>
+    <t>Event5</t>
   </si>
   <si>
     <t>Actor0001_1</t>
@@ -245,9 +251,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -258,8 +264,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,60 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,26 +340,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,16 +363,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,7 +373,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,13 +423,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +537,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,157 +573,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,17 +617,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,11 +661,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,28 +709,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,7 +722,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,7 +731,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,127 +740,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,10 +1190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1476,69 +1482,69 @@
         <v>なし</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>202</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" s="1" customFormat="1" spans="1:4">
+      <c r="A20" s="1">
+        <v>123</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="str">
+      <c r="C20" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="str">
         <f>INDEX(Define!B:B,MATCH(C20,Define!A:A))</f>
-        <v>なし</v>
+        <v>リザルト</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" t="str">
         <f>INDEX(Define!B:B,MATCH(C21,Define!A:A))</f>
-        <v>戦略</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:4">
-      <c r="A22" s="1">
-        <v>123</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>リザルト</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>11</v>
       </c>
-      <c r="D22" s="1" t="str">
+      <c r="D22" t="str">
         <f>INDEX(Define!B:B,MATCH(C22,Define!A:A))</f>
         <v>リザルト</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" t="str">
         <f>INDEX(Define!B:B,MATCH(C23,Define!A:A))</f>
-        <v>リザルト</v>
+        <v>戦略</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>1001</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1551,9 +1557,9 @@
         <v>なし</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" s="1" customFormat="1" spans="1:4">
       <c r="A25">
-        <v>1002</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1568,7 +1574,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1583,7 +1589,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1598,7 +1604,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1613,7 +1619,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1628,7 +1634,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1643,7 +1649,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>2001</v>
+        <v>1006</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1658,7 +1664,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>2002</v>
+        <v>1007</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1673,7 +1679,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1688,7 +1694,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1703,7 +1709,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1718,7 +1724,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1733,7 +1739,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1748,7 +1754,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>3001</v>
+        <v>2006</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1763,7 +1769,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>3002</v>
+        <v>2007</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1793,7 +1799,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1808,7 +1814,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1823,7 +1829,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1838,7 +1844,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1853,7 +1859,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>4001</v>
+        <v>3006</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1868,7 +1874,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>4002</v>
+        <v>3007</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1883,7 +1889,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1898,7 +1904,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1913,7 +1919,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1928,7 +1934,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1943,7 +1949,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1958,7 +1964,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>5001</v>
+        <v>4006</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1973,7 +1979,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>5002</v>
+        <v>4007</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1988,7 +1994,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -2003,7 +2009,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -2018,7 +2024,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -2033,7 +2039,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -2048,7 +2054,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -2058,6 +2064,36 @@
       </c>
       <c r="D58" t="str">
         <f>INDEX(Define!B:B,MATCH(C58,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>5006</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="str">
+        <f>INDEX(Define!B:B,MATCH(C59,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>5007</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="str">
+        <f>INDEX(Define!B:B,MATCH(C60,Define!A:A))</f>
         <v>なし</v>
       </c>
     </row>
@@ -2088,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2096,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2104,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2112,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2120,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2128,7 +2164,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2136,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2144,7 +2180,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2152,7 +2188,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2160,7 +2196,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2168,7 +2204,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2176,7 +2212,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2184,7 +2220,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2192,7 +2228,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Adventures.xlsx
+++ b/Assets/Data/Adventures.xlsx
@@ -251,8 +251,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -261,66 +261,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,25 +279,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,17 +317,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,8 +346,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +384,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -423,187 +423,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,22 +617,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,36 +672,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -714,6 +694,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -722,7 +722,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,7 +731,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,127 +740,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,8 +1192,8 @@
   <sheetPr/>
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="$A23:$XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>

--- a/Assets/Data/Adventures.xlsx
+++ b/Assets/Data/Adventures.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -98,109 +98,7 @@
     <t>Event5</t>
   </si>
   <si>
-    <t>Actor0001_1</t>
-  </si>
-  <si>
-    <t>Actor0002_1</t>
-  </si>
-  <si>
-    <t>Actor0003_1</t>
-  </si>
-  <si>
-    <t>Actor0004_1</t>
-  </si>
-  <si>
-    <t>Actor0005_1</t>
-  </si>
-  <si>
-    <t>Actor0006_1</t>
-  </si>
-  <si>
-    <t>Actor0007_1</t>
-  </si>
-  <si>
-    <t>Actor0001_2</t>
-  </si>
-  <si>
-    <t>Actor0002_2</t>
-  </si>
-  <si>
-    <t>Actor0003_2</t>
-  </si>
-  <si>
-    <t>Actor0004_2</t>
-  </si>
-  <si>
-    <t>Actor0005_2</t>
-  </si>
-  <si>
-    <t>Actor0006_2</t>
-  </si>
-  <si>
-    <t>Actor0007_2</t>
-  </si>
-  <si>
-    <t>Actor0001_3</t>
-  </si>
-  <si>
-    <t>Actor0002_3</t>
-  </si>
-  <si>
-    <t>Actor0003_3</t>
-  </si>
-  <si>
-    <t>Actor0004_3</t>
-  </si>
-  <si>
-    <t>Actor0005_3</t>
-  </si>
-  <si>
-    <t>Actor0006_3</t>
-  </si>
-  <si>
-    <t>Actor0007_3</t>
-  </si>
-  <si>
-    <t>Actor0001_4</t>
-  </si>
-  <si>
-    <t>Actor0002_4</t>
-  </si>
-  <si>
-    <t>Actor0003_4</t>
-  </si>
-  <si>
-    <t>Actor0004_4</t>
-  </si>
-  <si>
-    <t>Actor0005_4</t>
-  </si>
-  <si>
-    <t>Actor0006_4</t>
-  </si>
-  <si>
-    <t>Actor0007_4</t>
-  </si>
-  <si>
-    <t>Actor0001_5</t>
-  </si>
-  <si>
-    <t>Actor0002_5</t>
-  </si>
-  <si>
-    <t>Actor0003_5</t>
-  </si>
-  <si>
-    <t>Actor0004_5</t>
-  </si>
-  <si>
-    <t>Actor0005_5</t>
-  </si>
-  <si>
-    <t>Actor0006_5</t>
-  </si>
-  <si>
-    <t>Actor0007_5</t>
+    <t>Opening2</t>
   </si>
   <si>
     <t>なし</t>
@@ -250,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -264,8 +162,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,7 +186,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,37 +230,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,21 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -362,11 +283,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,36 +305,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -423,31 +321,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,151 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,8 +548,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +565,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,24 +604,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -722,145 +620,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1190,10 +1088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="$A23:$XFD23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1439,7 +1337,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1577,7 +1475,7 @@
         <v>1001</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1592,509 +1490,14 @@
         <v>1002</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D27" t="str">
         <f>INDEX(Define!B:B,MATCH(C27,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>1003</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="str">
-        <f>INDEX(Define!B:B,MATCH(C28,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>1004</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="str">
-        <f>INDEX(Define!B:B,MATCH(C29,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>1005</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="str">
-        <f>INDEX(Define!B:B,MATCH(C30,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>1006</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="str">
-        <f>INDEX(Define!B:B,MATCH(C31,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>1007</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="str">
-        <f>INDEX(Define!B:B,MATCH(C32,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>2001</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="str">
-        <f>INDEX(Define!B:B,MATCH(C33,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>2002</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="str">
-        <f>INDEX(Define!B:B,MATCH(C34,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>2003</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="str">
-        <f>INDEX(Define!B:B,MATCH(C35,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>2004</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" t="str">
-        <f>INDEX(Define!B:B,MATCH(C36,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>2005</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="str">
-        <f>INDEX(Define!B:B,MATCH(C37,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>2006</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="str">
-        <f>INDEX(Define!B:B,MATCH(C38,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>2007</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" t="str">
-        <f>INDEX(Define!B:B,MATCH(C39,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>3001</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="str">
-        <f>INDEX(Define!B:B,MATCH(C40,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>3002</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" t="str">
-        <f>INDEX(Define!B:B,MATCH(C41,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>3003</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" t="str">
-        <f>INDEX(Define!B:B,MATCH(C42,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>3004</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" t="str">
-        <f>INDEX(Define!B:B,MATCH(C43,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>3005</v>
-      </c>
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" t="str">
-        <f>INDEX(Define!B:B,MATCH(C44,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>3006</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="str">
-        <f>INDEX(Define!B:B,MATCH(C45,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>3007</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="str">
-        <f>INDEX(Define!B:B,MATCH(C46,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>4001</v>
-      </c>
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" t="str">
-        <f>INDEX(Define!B:B,MATCH(C47,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>4002</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" t="str">
-        <f>INDEX(Define!B:B,MATCH(C48,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>4003</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="str">
-        <f>INDEX(Define!B:B,MATCH(C49,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>4004</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" t="str">
-        <f>INDEX(Define!B:B,MATCH(C50,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>4005</v>
-      </c>
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="str">
-        <f>INDEX(Define!B:B,MATCH(C51,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>4006</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="str">
-        <f>INDEX(Define!B:B,MATCH(C52,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>4007</v>
-      </c>
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="str">
-        <f>INDEX(Define!B:B,MATCH(C53,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>5001</v>
-      </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" t="str">
-        <f>INDEX(Define!B:B,MATCH(C54,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>5002</v>
-      </c>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55" t="str">
-        <f>INDEX(Define!B:B,MATCH(C55,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>5003</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56" t="str">
-        <f>INDEX(Define!B:B,MATCH(C56,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>5004</v>
-      </c>
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57" t="str">
-        <f>INDEX(Define!B:B,MATCH(C57,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>5005</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58" t="str">
-        <f>INDEX(Define!B:B,MATCH(C58,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>5006</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" t="str">
-        <f>INDEX(Define!B:B,MATCH(C59,Define!A:A))</f>
-        <v>なし</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>5007</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60" t="str">
-        <f>INDEX(Define!B:B,MATCH(C60,Define!A:A))</f>
-        <v>なし</v>
+        <v>戦略</v>
       </c>
     </row>
   </sheetData>
@@ -2124,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2132,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2140,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2148,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2156,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2164,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2172,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2180,7 +1583,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2188,7 +1591,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2196,7 +1599,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2204,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2212,7 +1615,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2220,7 +1623,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2228,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
